--- a/birthdays-frequency-histogram-20160921/birthdays-frequency-histogram-20160921.xlsx
+++ b/birthdays-frequency-histogram-20160921/birthdays-frequency-histogram-20160921.xlsx
@@ -17,13 +17,13 @@
     <t>state</t>
   </si>
   <si>
-    <t>key</t>
-  </si>
-  <si>
     <t>something</t>
   </si>
   <si>
     <t>another_thing</t>
+  </si>
+  <si>
+    <t>key</t>
   </si>
   <si>
     <t>Alabama</t>
@@ -50,6 +50,9 @@
     <t>1958</t>
   </si>
   <si>
+    <t>The Headline For This Graphic</t>
+  </si>
+  <si>
     <t>Arizona</t>
   </si>
   <si>
@@ -63,9 +66,6 @@
   </si>
   <si>
     <t>8</t>
-  </si>
-  <si>
-    <t>The Headline For This Graphic</t>
   </si>
   <si>
     <t>1836</t>
@@ -89,6 +89,9 @@
     <t>1876</t>
   </si>
   <si>
+    <t>subhed</t>
+  </si>
+  <si>
     <t>Connecticut</t>
   </si>
   <si>
@@ -96,9 +99,6 @@
   </si>
   <si>
     <t>1788</t>
-  </si>
-  <si>
-    <t>subhed</t>
   </si>
   <si>
     <t>This is default text in the copytext spreadsheet for this graphic. &lt;a href="https://docs.google.com/spreadsheets/d/{{ COPY_GOOGLE_DOC_KEY }}/edit" target="_blank"&gt;Edit this spreadsheet&lt;/a&gt; (created when you added the graphic) to update the data and text. Delete any rows you don't need, and add others as needed. Don't forget to &lt;code&gt;fab update_copy:{{ slug }}&lt;/code&gt; to update the text or visit &lt;a href="http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1" target="_top"&gt;&lt;code&gt;http://127.0.0.1:8000/graphics/{{ slug }}/?refresh=1&lt;/code&gt;&lt;/a&gt; to refresh the data every time you reload the page!</t>
@@ -243,7 +243,7 @@
   <sheetData>
     <row r="1" ht="33.0" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>5</v>
@@ -278,7 +278,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C2" s="9"/>
       <c r="D2" s="9"/>
@@ -307,7 +307,7 @@
     </row>
     <row r="3" ht="33.0" customHeight="1">
       <c r="A3" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>29</v>
@@ -855,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
@@ -908,21 +908,21 @@
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>18</v>
@@ -952,13 +952,13 @@
     </row>
     <row r="8">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
